--- a/JPF Graded excercise.xlsx
+++ b/JPF Graded excercise.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaec\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ug.kth.se\dfs\home\r\a\rahimz\appdata\xp.V2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FC805-2D05-4DFB-AA76-ADD79CA946BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C707D-1845-4CD7-A3CC-2D3BAD988A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9FD811A8-7D66-4C11-B7AB-07B9481D8DE0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{9FD811A8-7D66-4C11-B7AB-07B9481D8DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="mandatory part" sheetId="1" r:id="rId1"/>
-    <sheet name="3.1. validation and analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="3.4 Less locking" sheetId="3" r:id="rId3"/>
+    <sheet name="3.2 Double close" sheetId="4" r:id="rId2"/>
+    <sheet name="3.1. validation and analysis" sheetId="2" r:id="rId3"/>
+    <sheet name="3.4 Less locking" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Transition</t>
   </si>
@@ -150,9 +141,6 @@
     <t>Main Server is reading the the HTTP requests that are placed in the Webserver.java file. Parses over the length of the file to launch an appropiate number of worker threads and input files. These worker threads are aligned with the amount of chunks that are downloaded in parallel. and calls accept after initializing a server socket and is waiting for the client(ServerSocket ss = new ServerSocket(port);to enable acceptions of connection between server and client).</t>
   </si>
   <si>
-    <t>Main server accepts the connect file, reads the request and downloads new Worker, closes the port(close()) and calls readLine.</t>
-  </si>
-  <si>
     <t>When you separate seek and write on two locks with two synchronized functions, concurrency has to be dealt with in the WriteBuf itself. There could occur an error as seeking and writing would then be tried to do simultanously. When we implemented the split synchronized function in the WriteBuf in the Downloader, there was no error detected, but JPF has its boundaries at this point since the network processes are highly abstracted. The same we had in the example "Racer" in the lecture where the threads sometimes interfere but predominantly we have atomic operations. So for the downloader the position were the data should be placed(found out with seek) in the output file would be searched for simutanously with the writing into the RandomAccessFile output. Therefore the data could be placed at wrong places and a data race could occur. When 2 worker threads want to access the writeBuf method at the same time both are accessing the output file at the same time without protection against concurrency. It is not guaranteed now that the writing access is placed at the right position now.</t>
   </si>
   <si>
@@ -190,6 +178,36 @@
   </si>
   <si>
     <t>Downloader is blocking accept(5), thread is starting to  start with the initial download(synchronized, 6), reading received data and appending it to String. Connection is then accepted.</t>
+  </si>
+  <si>
+    <t>Main server accepts the connect file, reads the request and downloads new Worker, closes the port(close()).</t>
+  </si>
+  <si>
+    <t>Main Server is reading the the HTTP requests that are placed in the Webserver.java file. Parses over the length of the file to launch an appropiate number of worker threads and input files. These worker threads are aligned with the amount of chunks that are downloaded in parallel. and calls accept after creating a socket(ServerSocket ss = new ServerSocket(port);to enable acceptions of connection between server and client).</t>
+  </si>
+  <si>
+    <t>accepts(BLOCKING_ACCEPT; blocking operations is the incoming communication way here), create output files and java.io RandomAccessFiles with an initialisation length of 0(new Downloader), calls connect before creating a new socket that represents a connection(s = new Socket(url.getHost(), port)). Before the socket implementation the connection is blocked.</t>
+  </si>
+  <si>
+    <t>blocking accept(5), thread is starting to start with the intinial download(synchronized, 6), reading received data and appending it to String. Connection is then accepted.</t>
+  </si>
+  <si>
+    <t>Worker connects and obtains access to the Shared Socket/File. Therefore Worker has now access to the Input(Read) and Ouputfile(Write). Worker thread is downloading data chunks from Downloader from the Shared Socket and additionally main thread(two concurrent downloads).</t>
+  </si>
+  <si>
+    <t>Main server accepts the connect file, reads the request and downloads new Worker.</t>
+  </si>
+  <si>
+    <t>57-80</t>
+  </si>
+  <si>
+    <t>The workers progress on downloading chunks and eventually one worker will close "output" in transition 77.</t>
+  </si>
+  <si>
+    <t>81-83</t>
+  </si>
+  <si>
+    <t>Since output is closed and another worker tries to close it. An assertion error is thrown.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,11 +327,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,9 +451,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +766,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,19 +1064,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8740EB9-B9FB-492E-919F-BB6D688C0295}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -989,7 +1100,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -999,7 +1110,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1120,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1130,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1029,17 +1140,17 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1049,17 +1160,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1190,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1109,15 +1220,15 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1128,6 +1239,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32C6FE8-13F0-4391-AF59-522AB0F9BE7C}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>44695</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>18</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>51</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E5B38-CB32-4719-9C4C-6986470274B0}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1135,37 +1427,37 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="159.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="159.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
@@ -1177,172 +1469,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E31CDD0-A89D-4619-B53A-5895259FCEC4}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="203.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="203.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
